--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lrfn3-Lrfn3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lrfn3-Lrfn3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.555797992556648</v>
+        <v>0.5867285</v>
       </c>
       <c r="H2">
-        <v>0.555797992556648</v>
+        <v>1.173457</v>
       </c>
       <c r="I2">
-        <v>0.169455472910412</v>
+        <v>0.1699339543088995</v>
       </c>
       <c r="J2">
-        <v>0.169455472910412</v>
+        <v>0.1343654643255494</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.555797992556648</v>
+        <v>0.5867285</v>
       </c>
       <c r="N2">
-        <v>0.555797992556648</v>
+        <v>1.173457</v>
       </c>
       <c r="O2">
-        <v>0.169455472910412</v>
+        <v>0.1699339543088995</v>
       </c>
       <c r="P2">
-        <v>0.169455472910412</v>
+        <v>0.1343654643255494</v>
       </c>
       <c r="Q2">
-        <v>0.3089114085299997</v>
+        <v>0.34425033271225</v>
       </c>
       <c r="R2">
-        <v>0.3089114085299997</v>
+        <v>1.377001330849</v>
       </c>
       <c r="S2">
-        <v>0.02871515729929136</v>
+        <v>0.02887754882705916</v>
       </c>
       <c r="T2">
-        <v>0.02871515729929136</v>
+        <v>0.01805407800342048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.555797992556648</v>
+        <v>0.5867285</v>
       </c>
       <c r="H3">
-        <v>0.555797992556648</v>
+        <v>1.173457</v>
       </c>
       <c r="I3">
-        <v>0.169455472910412</v>
+        <v>0.1699339543088995</v>
       </c>
       <c r="J3">
-        <v>0.169455472910412</v>
+        <v>0.1343654643255494</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.2541846241774</v>
+        <v>1.282443666666667</v>
       </c>
       <c r="N3">
-        <v>1.2541846241774</v>
+        <v>3.847331000000001</v>
       </c>
       <c r="O3">
-        <v>0.3823843400896906</v>
+        <v>0.3714336758058812</v>
       </c>
       <c r="P3">
-        <v>0.3823843400896906</v>
+        <v>0.4405346052127009</v>
       </c>
       <c r="Q3">
-        <v>0.6970732964132129</v>
+        <v>0.7524462488778334</v>
       </c>
       <c r="R3">
-        <v>0.6970732964132129</v>
+        <v>4.514677493267</v>
       </c>
       <c r="S3">
-        <v>0.06479711918343432</v>
+        <v>0.06311919329318322</v>
       </c>
       <c r="T3">
-        <v>0.06479711918343432</v>
+        <v>0.05919263678087714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.555797992556648</v>
+        <v>0.5867285</v>
       </c>
       <c r="H4">
-        <v>0.555797992556648</v>
+        <v>1.173457</v>
       </c>
       <c r="I4">
-        <v>0.169455472910412</v>
+        <v>0.1699339543088995</v>
       </c>
       <c r="J4">
-        <v>0.169455472910412</v>
+        <v>0.1343654643255494</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.461240091111373</v>
+        <v>0.5455083333333333</v>
       </c>
       <c r="N4">
-        <v>0.461240091111373</v>
+        <v>1.636525</v>
       </c>
       <c r="O4">
-        <v>0.1406260166665734</v>
+        <v>0.1579953729736847</v>
       </c>
       <c r="P4">
-        <v>0.1406260166665734</v>
+        <v>0.1873885804979387</v>
       </c>
       <c r="Q4">
-        <v>0.2563563167263465</v>
+        <v>0.3200652861541666</v>
       </c>
       <c r="R4">
-        <v>0.2563563167263465</v>
+        <v>1.920391716925</v>
       </c>
       <c r="S4">
-        <v>0.02382984815774167</v>
+        <v>0.02684877849192768</v>
       </c>
       <c r="T4">
-        <v>0.02382984815774167</v>
+        <v>0.02517855362791113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.555797992556648</v>
+        <v>0.5867285</v>
       </c>
       <c r="H5">
-        <v>0.555797992556648</v>
+        <v>1.173457</v>
       </c>
       <c r="I5">
-        <v>0.169455472910412</v>
+        <v>0.1699339543088995</v>
       </c>
       <c r="J5">
-        <v>0.169455472910412</v>
+        <v>0.1343654643255494</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.00868311644441</v>
+        <v>1.038005</v>
       </c>
       <c r="N5">
-        <v>1.00868311644441</v>
+        <v>2.07601</v>
       </c>
       <c r="O5">
-        <v>0.3075341703333239</v>
+        <v>0.3006369969115345</v>
       </c>
       <c r="P5">
-        <v>0.3075341703333239</v>
+        <v>0.237711349963811</v>
       </c>
       <c r="Q5">
-        <v>0.5606240512455867</v>
+        <v>0.6090271166425</v>
       </c>
       <c r="R5">
-        <v>0.5606240512455867</v>
+        <v>2.43610846657</v>
       </c>
       <c r="S5">
-        <v>0.05211334826994459</v>
+        <v>0.05108843369672948</v>
       </c>
       <c r="T5">
-        <v>0.05211334826994459</v>
+        <v>0.03194019591334064</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.2541846241774</v>
+        <v>1.282443666666667</v>
       </c>
       <c r="H6">
-        <v>1.2541846241774</v>
+        <v>3.847331000000001</v>
       </c>
       <c r="I6">
-        <v>0.3823843400896906</v>
+        <v>0.3714336758058812</v>
       </c>
       <c r="J6">
-        <v>0.3823843400896906</v>
+        <v>0.4405346052127009</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.555797992556648</v>
+        <v>0.5867285</v>
       </c>
       <c r="N6">
-        <v>0.555797992556648</v>
+        <v>1.173457</v>
       </c>
       <c r="O6">
-        <v>0.169455472910412</v>
+        <v>0.1699339543088995</v>
       </c>
       <c r="P6">
-        <v>0.169455472910412</v>
+        <v>0.1343654643255494</v>
       </c>
       <c r="Q6">
-        <v>0.6970732964132129</v>
+        <v>0.7524462488778334</v>
       </c>
       <c r="R6">
-        <v>0.6970732964132129</v>
+        <v>4.514677493267</v>
       </c>
       <c r="S6">
-        <v>0.06479711918343432</v>
+        <v>0.06311919329318322</v>
       </c>
       <c r="T6">
-        <v>0.06479711918343432</v>
+        <v>0.05919263678087714</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.2541846241774</v>
+        <v>1.282443666666667</v>
       </c>
       <c r="H7">
-        <v>1.2541846241774</v>
+        <v>3.847331000000001</v>
       </c>
       <c r="I7">
-        <v>0.3823843400896906</v>
+        <v>0.3714336758058812</v>
       </c>
       <c r="J7">
-        <v>0.3823843400896906</v>
+        <v>0.4405346052127009</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.2541846241774</v>
+        <v>1.282443666666667</v>
       </c>
       <c r="N7">
-        <v>1.2541846241774</v>
+        <v>3.847331000000001</v>
       </c>
       <c r="O7">
-        <v>0.3823843400896906</v>
+        <v>0.3714336758058812</v>
       </c>
       <c r="P7">
-        <v>0.3823843400896906</v>
+        <v>0.4405346052127009</v>
       </c>
       <c r="Q7">
-        <v>1.572979071523006</v>
+        <v>1.644661758173445</v>
       </c>
       <c r="R7">
-        <v>1.572979071523006</v>
+        <v>14.801955823561</v>
       </c>
       <c r="S7">
-        <v>0.1462177835458282</v>
+        <v>0.1379629755226684</v>
       </c>
       <c r="T7">
-        <v>0.1462177835458282</v>
+        <v>0.1940707383899102</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.2541846241774</v>
+        <v>1.282443666666667</v>
       </c>
       <c r="H8">
-        <v>1.2541846241774</v>
+        <v>3.847331000000001</v>
       </c>
       <c r="I8">
-        <v>0.3823843400896906</v>
+        <v>0.3714336758058812</v>
       </c>
       <c r="J8">
-        <v>0.3823843400896906</v>
+        <v>0.4405346052127009</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.461240091111373</v>
+        <v>0.5455083333333333</v>
       </c>
       <c r="N8">
-        <v>0.461240091111373</v>
+        <v>1.636525</v>
       </c>
       <c r="O8">
-        <v>0.1406260166665734</v>
+        <v>0.1579953729736847</v>
       </c>
       <c r="P8">
-        <v>0.1406260166665734</v>
+        <v>0.1873885804979387</v>
       </c>
       <c r="Q8">
-        <v>0.578480230326067</v>
+        <v>0.6995837071972222</v>
       </c>
       <c r="R8">
-        <v>0.578480230326067</v>
+        <v>6.296253364775</v>
       </c>
       <c r="S8">
-        <v>0.05377318658248951</v>
+        <v>0.0586848021439369</v>
       </c>
       <c r="T8">
-        <v>0.05377318658248951</v>
+        <v>0.08255115433102785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.2541846241774</v>
+        <v>1.282443666666667</v>
       </c>
       <c r="H9">
-        <v>1.2541846241774</v>
+        <v>3.847331000000001</v>
       </c>
       <c r="I9">
-        <v>0.3823843400896906</v>
+        <v>0.3714336758058812</v>
       </c>
       <c r="J9">
-        <v>0.3823843400896906</v>
+        <v>0.4405346052127009</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.00868311644441</v>
+        <v>1.038005</v>
       </c>
       <c r="N9">
-        <v>1.00868311644441</v>
+        <v>2.07601</v>
       </c>
       <c r="O9">
-        <v>0.3075341703333239</v>
+        <v>0.3006369969115345</v>
       </c>
       <c r="P9">
-        <v>0.3075341703333239</v>
+        <v>0.237711349963811</v>
       </c>
       <c r="Q9">
-        <v>1.265074855311921</v>
+        <v>1.331182938218334</v>
       </c>
       <c r="R9">
-        <v>1.265074855311921</v>
+        <v>7.987097629310002</v>
       </c>
       <c r="S9">
-        <v>0.1175962507779386</v>
+        <v>0.1116667048460926</v>
       </c>
       <c r="T9">
-        <v>0.1175962507779386</v>
+        <v>0.1047200757108857</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.461240091111373</v>
+        <v>0.5455083333333333</v>
       </c>
       <c r="H10">
-        <v>0.461240091111373</v>
+        <v>1.636525</v>
       </c>
       <c r="I10">
-        <v>0.1406260166665734</v>
+        <v>0.1579953729736847</v>
       </c>
       <c r="J10">
-        <v>0.1406260166665734</v>
+        <v>0.1873885804979387</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.555797992556648</v>
+        <v>0.5867285</v>
       </c>
       <c r="N10">
-        <v>0.555797992556648</v>
+        <v>1.173457</v>
       </c>
       <c r="O10">
-        <v>0.169455472910412</v>
+        <v>0.1699339543088995</v>
       </c>
       <c r="P10">
-        <v>0.169455472910412</v>
+        <v>0.1343654643255494</v>
       </c>
       <c r="Q10">
-        <v>0.2563563167263465</v>
+        <v>0.3200652861541666</v>
       </c>
       <c r="R10">
-        <v>0.2563563167263465</v>
+        <v>1.920391716925</v>
       </c>
       <c r="S10">
-        <v>0.02382984815774167</v>
+        <v>0.02684877849192768</v>
       </c>
       <c r="T10">
-        <v>0.02382984815774167</v>
+        <v>0.02517855362791113</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,52 +1086,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.461240091111373</v>
+        <v>0.5455083333333333</v>
       </c>
       <c r="H11">
-        <v>0.461240091111373</v>
+        <v>1.636525</v>
       </c>
       <c r="I11">
-        <v>0.1406260166665734</v>
+        <v>0.1579953729736847</v>
       </c>
       <c r="J11">
-        <v>0.1406260166665734</v>
+        <v>0.1873885804979387</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.2541846241774</v>
+        <v>1.282443666666667</v>
       </c>
       <c r="N11">
-        <v>1.2541846241774</v>
+        <v>3.847331000000001</v>
       </c>
       <c r="O11">
-        <v>0.3823843400896906</v>
+        <v>0.3714336758058812</v>
       </c>
       <c r="P11">
-        <v>0.3823843400896906</v>
+        <v>0.4405346052127009</v>
       </c>
       <c r="Q11">
-        <v>0.578480230326067</v>
+        <v>0.6995837071972222</v>
       </c>
       <c r="R11">
-        <v>0.578480230326067</v>
+        <v>6.296253364775</v>
       </c>
       <c r="S11">
-        <v>0.05377318658248951</v>
+        <v>0.0586848021439369</v>
       </c>
       <c r="T11">
-        <v>0.05377318658248951</v>
+        <v>0.08255115433102785</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,52 +1148,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.461240091111373</v>
+        <v>0.5455083333333333</v>
       </c>
       <c r="H12">
-        <v>0.461240091111373</v>
+        <v>1.636525</v>
       </c>
       <c r="I12">
-        <v>0.1406260166665734</v>
+        <v>0.1579953729736847</v>
       </c>
       <c r="J12">
-        <v>0.1406260166665734</v>
+        <v>0.1873885804979387</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.461240091111373</v>
+        <v>0.5455083333333333</v>
       </c>
       <c r="N12">
-        <v>0.461240091111373</v>
+        <v>1.636525</v>
       </c>
       <c r="O12">
-        <v>0.1406260166665734</v>
+        <v>0.1579953729736847</v>
       </c>
       <c r="P12">
-        <v>0.1406260166665734</v>
+        <v>0.1873885804979387</v>
       </c>
       <c r="Q12">
-        <v>0.2127424216484277</v>
+        <v>0.2975793417361111</v>
       </c>
       <c r="R12">
-        <v>0.2127424216484277</v>
+        <v>2.678214075624999</v>
       </c>
       <c r="S12">
-        <v>0.01977567656350738</v>
+        <v>0.02496253788109375</v>
       </c>
       <c r="T12">
-        <v>0.01977567656350738</v>
+        <v>0.03511448010103246</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,52 +1210,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.461240091111373</v>
+        <v>0.5455083333333333</v>
       </c>
       <c r="H13">
-        <v>0.461240091111373</v>
+        <v>1.636525</v>
       </c>
       <c r="I13">
-        <v>0.1406260166665734</v>
+        <v>0.1579953729736847</v>
       </c>
       <c r="J13">
-        <v>0.1406260166665734</v>
+        <v>0.1873885804979387</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.00868311644441</v>
+        <v>1.038005</v>
       </c>
       <c r="N13">
-        <v>1.00868311644441</v>
+        <v>2.07601</v>
       </c>
       <c r="O13">
-        <v>0.3075341703333239</v>
+        <v>0.3006369969115345</v>
       </c>
       <c r="P13">
-        <v>0.3075341703333239</v>
+        <v>0.237711349963811</v>
       </c>
       <c r="Q13">
-        <v>0.4652450925313233</v>
+        <v>0.5662403775416667</v>
       </c>
       <c r="R13">
-        <v>0.4652450925313233</v>
+        <v>3.39744226525</v>
       </c>
       <c r="S13">
-        <v>0.04324730536283483</v>
+        <v>0.0474992544567264</v>
       </c>
       <c r="T13">
-        <v>0.04324730536283483</v>
+        <v>0.04454439243796728</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,52 +1272,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.00868311644441</v>
+        <v>1.038005</v>
       </c>
       <c r="H14">
-        <v>1.00868311644441</v>
+        <v>2.07601</v>
       </c>
       <c r="I14">
-        <v>0.3075341703333239</v>
+        <v>0.3006369969115345</v>
       </c>
       <c r="J14">
-        <v>0.3075341703333239</v>
+        <v>0.237711349963811</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.555797992556648</v>
+        <v>0.5867285</v>
       </c>
       <c r="N14">
-        <v>0.555797992556648</v>
+        <v>1.173457</v>
       </c>
       <c r="O14">
-        <v>0.169455472910412</v>
+        <v>0.1699339543088995</v>
       </c>
       <c r="P14">
-        <v>0.169455472910412</v>
+        <v>0.1343654643255494</v>
       </c>
       <c r="Q14">
-        <v>0.5606240512455867</v>
+        <v>0.6090271166425</v>
       </c>
       <c r="R14">
-        <v>0.5606240512455867</v>
+        <v>2.43610846657</v>
       </c>
       <c r="S14">
-        <v>0.05211334826994459</v>
+        <v>0.05108843369672948</v>
       </c>
       <c r="T14">
-        <v>0.05211334826994459</v>
+        <v>0.03194019591334064</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,52 +1334,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.00868311644441</v>
+        <v>1.038005</v>
       </c>
       <c r="H15">
-        <v>1.00868311644441</v>
+        <v>2.07601</v>
       </c>
       <c r="I15">
-        <v>0.3075341703333239</v>
+        <v>0.3006369969115345</v>
       </c>
       <c r="J15">
-        <v>0.3075341703333239</v>
+        <v>0.237711349963811</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.2541846241774</v>
+        <v>1.282443666666667</v>
       </c>
       <c r="N15">
-        <v>1.2541846241774</v>
+        <v>3.847331000000001</v>
       </c>
       <c r="O15">
-        <v>0.3823843400896906</v>
+        <v>0.3714336758058812</v>
       </c>
       <c r="P15">
-        <v>0.3823843400896906</v>
+        <v>0.4405346052127009</v>
       </c>
       <c r="Q15">
-        <v>1.265074855311921</v>
+        <v>1.331182938218334</v>
       </c>
       <c r="R15">
-        <v>1.265074855311921</v>
+        <v>7.987097629310002</v>
       </c>
       <c r="S15">
-        <v>0.1175962507779386</v>
+        <v>0.1116667048460926</v>
       </c>
       <c r="T15">
-        <v>0.1175962507779386</v>
+        <v>0.1047200757108857</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,52 +1396,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.00868311644441</v>
+        <v>1.038005</v>
       </c>
       <c r="H16">
-        <v>1.00868311644441</v>
+        <v>2.07601</v>
       </c>
       <c r="I16">
-        <v>0.3075341703333239</v>
+        <v>0.3006369969115345</v>
       </c>
       <c r="J16">
-        <v>0.3075341703333239</v>
+        <v>0.237711349963811</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.461240091111373</v>
+        <v>0.5455083333333333</v>
       </c>
       <c r="N16">
-        <v>0.461240091111373</v>
+        <v>1.636525</v>
       </c>
       <c r="O16">
-        <v>0.1406260166665734</v>
+        <v>0.1579953729736847</v>
       </c>
       <c r="P16">
-        <v>0.1406260166665734</v>
+        <v>0.1873885804979387</v>
       </c>
       <c r="Q16">
-        <v>0.4652450925313233</v>
+        <v>0.5662403775416667</v>
       </c>
       <c r="R16">
-        <v>0.4652450925313233</v>
+        <v>3.39744226525</v>
       </c>
       <c r="S16">
-        <v>0.04324730536283483</v>
+        <v>0.0474992544567264</v>
       </c>
       <c r="T16">
-        <v>0.04324730536283483</v>
+        <v>0.04454439243796728</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,52 +1458,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.00868311644441</v>
+        <v>1.038005</v>
       </c>
       <c r="H17">
-        <v>1.00868311644441</v>
+        <v>2.07601</v>
       </c>
       <c r="I17">
-        <v>0.3075341703333239</v>
+        <v>0.3006369969115345</v>
       </c>
       <c r="J17">
-        <v>0.3075341703333239</v>
+        <v>0.237711349963811</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.00868311644441</v>
+        <v>1.038005</v>
       </c>
       <c r="N17">
-        <v>1.00868311644441</v>
+        <v>2.07601</v>
       </c>
       <c r="O17">
-        <v>0.3075341703333239</v>
+        <v>0.3006369969115345</v>
       </c>
       <c r="P17">
-        <v>0.3075341703333239</v>
+        <v>0.237711349963811</v>
       </c>
       <c r="Q17">
-        <v>1.017441629400007</v>
+        <v>1.077454380025</v>
       </c>
       <c r="R17">
-        <v>1.017441629400007</v>
+        <v>4.3098175201</v>
       </c>
       <c r="S17">
-        <v>0.09457726592260589</v>
+        <v>0.09038260391198601</v>
       </c>
       <c r="T17">
-        <v>0.09457726592260589</v>
+        <v>0.05650668590161743</v>
       </c>
     </row>
   </sheetData>
